--- a/data/worker_data.xlsx
+++ b/data/worker_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mess\CODE REPO\Medidor de producción\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mess\CODE REPO\Producción PH - Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AD4B4F-71E6-45C0-BAB7-2197E55FAE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBC628B-A6A8-45A4-8627-32417E4382E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,15 +215,9 @@
     <t>GASFITERÍA</t>
   </si>
   <si>
-    <t>Speciality</t>
-  </si>
-  <si>
     <t>Worker Number</t>
   </si>
   <si>
-    <t>Worker Name</t>
-  </si>
-  <si>
     <t>Supervisor</t>
   </si>
   <si>
@@ -233,7 +227,13 @@
     <t>F</t>
   </si>
   <si>
-    <t>Gender</t>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Especialidad</t>
+  </si>
+  <si>
+    <t>Sexo</t>
   </si>
 </sst>
 </file>
@@ -554,28 +554,29 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="3" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
         <v>65</v>
@@ -595,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -612,7 +613,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -629,7 +630,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -646,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -663,7 +664,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -680,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -697,7 +698,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -714,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -731,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -748,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -765,7 +766,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -782,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -799,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -816,7 +817,7 @@
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -833,7 +834,7 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -850,7 +851,7 @@
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -867,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -884,7 +885,7 @@
         <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -901,7 +902,7 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -918,7 +919,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -935,7 +936,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -952,7 +953,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -969,7 +970,7 @@
         <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -986,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1003,7 +1004,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1020,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1037,7 +1038,7 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1054,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1071,7 +1072,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1088,7 +1089,7 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1105,7 +1106,7 @@
         <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1122,7 +1123,7 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1139,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1156,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1173,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1190,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1207,7 +1208,7 @@
         <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1224,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1241,7 +1242,7 @@
         <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1258,7 +1259,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1275,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1292,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1309,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1326,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1343,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1360,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1377,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1394,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1411,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1428,7 +1429,7 @@
         <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1445,7 +1446,7 @@
         <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/worker_data.xlsx
+++ b/data/worker_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mess\CODE REPO\Producción PH - Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBC628B-A6A8-45A4-8627-32417E4382E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C540D9E2-9E8D-43F3-850B-EFA98A9021E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="67">
   <si>
     <t>FELIPE URDERO</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Sexo</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
   </si>
 </sst>
 </file>
@@ -551,21 +554,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="3" width="22.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -582,7 +584,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -599,7 +601,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -616,7 +618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -633,7 +635,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -650,7 +652,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -667,7 +669,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -684,7 +686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -701,7 +703,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -718,7 +720,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -735,7 +737,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -752,7 +754,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -769,7 +771,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -786,7 +788,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -803,7 +805,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -820,7 +822,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -837,7 +839,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -854,7 +856,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -871,7 +873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -888,7 +890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -905,7 +907,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -922,7 +924,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -939,7 +941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -956,7 +958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -973,7 +975,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -990,7 +992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1007,7 +1009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1024,7 +1026,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1075,7 +1077,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1094,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1230,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1264,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1281,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1296,7 +1298,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1364,7 +1366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1400,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -1432,7 +1434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1447,6 +1449,40 @@
       </c>
       <c r="E52" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
